--- a/Assets/StreamingAssets/Templates/模板4 星美版2.xlsx
+++ b/Assets/StreamingAssets/Templates/模板4 星美版2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikus\Desktop\写轴器\bin\Debug\轴模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\unity\PCRCalculator\Assets\StreamingAssets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E1DDF8-9A6F-4089-949D-7F78CAF08F85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCB303E-5B02-4F42-B595-A0D997B869A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="轴" sheetId="2" r:id="rId1"/>
@@ -4334,27 +4334,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>552,55,104,103</t>
+    <t>3,9,1,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>209,106.5,52,52</t>
+    <t>5,3,1,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>261.5,106.5,52,52</t>
+    <t>5,4,1,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>314,106.5,52,52</t>
+    <t>5,5,1,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>366.5,106.5,52,52</t>
+    <t>5,6,1,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>419,106.5,52,52</t>
+    <t>5,7,1,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5093,20 +5093,35 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5123,37 +5138,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5641,11 +5641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -5663,11 +5663,11 @@
     <col min="24" max="24" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42"/>
       <c r="B2" s="52"/>
       <c r="C2" s="53" t="s">
@@ -5681,11 +5681,11 @@
       <c r="I2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="15"/>
       <c r="N2" s="22" t="s">
         <v>294</v>
@@ -5698,12 +5698,12 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="42"/>
       <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57" t="str">
+      <c r="C3" s="74" t="str">
         <f>IFERROR(AVERAGE(K8:K100),"未经测试")</f>
         <v>未经测试</v>
       </c>
@@ -5712,13 +5712,13 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="65" t="str">
+      <c r="I3" s="71" t="str">
         <f>IFERROR(COUNT(I5)/COUNTA(K8:K100),"未经测试")</f>
         <v>未经测试</v>
       </c>
       <c r="J3" s="51"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="15"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -5729,19 +5729,19 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="42"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="58"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="64"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="15"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -5752,7 +5752,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="42"/>
       <c r="B5" s="27" t="s">
         <v>4</v>
@@ -5765,13 +5765,13 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="68" t="str">
+      <c r="I5" s="58" t="str">
         <f>IFERROR(COUNTIF(K8:K100,"&gt;="&amp;C6)/COUNTA(K8:K100),"无达标次数")</f>
         <v>无达标次数</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="64"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="15"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -5782,7 +5782,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="42"/>
       <c r="B6" s="28" t="s">
         <v>6</v>
@@ -5793,10 +5793,10 @@
       <c r="F6" s="10"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="64"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
       <c r="M6" s="15"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -5807,7 +5807,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="43" t="s">
         <v>15</v>
       </c>
@@ -5817,13 +5817,13 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="16" t="s">
         <v>10</v>
       </c>
@@ -5846,15 +5846,15 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="44"/>
       <c r="B8" s="45"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="48"/>
       <c r="J8" s="18"/>
       <c r="K8" s="13"/>
@@ -5869,15 +5869,15 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="44"/>
       <c r="B9" s="45"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="48"/>
       <c r="J9" s="17"/>
       <c r="K9" s="13"/>
@@ -5892,15 +5892,15 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="48"/>
       <c r="J10" s="17"/>
       <c r="K10" s="13"/>
@@ -5915,15 +5915,15 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="44"/>
       <c r="B11" s="46"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="48"/>
       <c r="J11" s="18"/>
       <c r="K11" s="13"/>
@@ -5938,15 +5938,15 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="48"/>
       <c r="J12" s="19"/>
       <c r="K12" s="13"/>
@@ -5961,15 +5961,15 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44"/>
       <c r="B13" s="45"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="48"/>
       <c r="J13" s="19"/>
       <c r="K13" s="13"/>
@@ -5984,15 +5984,15 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="44"/>
       <c r="B14" s="45"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="48"/>
       <c r="J14" s="19"/>
       <c r="K14" s="13"/>
@@ -6007,15 +6007,15 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44"/>
       <c r="B15" s="45"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="48"/>
       <c r="J15" s="19"/>
       <c r="K15" s="13"/>
@@ -6030,15 +6030,15 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="44"/>
       <c r="B16" s="45"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="48"/>
       <c r="J16" s="19"/>
       <c r="K16" s="13"/>
@@ -6053,15 +6053,15 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="48"/>
       <c r="J17" s="19"/>
       <c r="K17" s="13"/>
@@ -6076,15 +6076,15 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="44"/>
       <c r="B18" s="45"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="48"/>
       <c r="J18" s="19"/>
       <c r="K18" s="13"/>
@@ -6099,15 +6099,15 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="48"/>
       <c r="J19" s="19"/>
       <c r="K19" s="13"/>
@@ -6122,15 +6122,15 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="48"/>
       <c r="J20" s="19"/>
       <c r="K20" s="13"/>
@@ -6145,15 +6145,15 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44"/>
       <c r="B21" s="45"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
       <c r="I21" s="48"/>
       <c r="J21" s="19"/>
       <c r="K21" s="13"/>
@@ -6168,15 +6168,15 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="48"/>
       <c r="J22" s="19"/>
       <c r="K22" s="13"/>
@@ -6191,15 +6191,15 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44"/>
       <c r="B23" s="45"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="48"/>
       <c r="J23" s="19"/>
       <c r="K23" s="13"/>
@@ -6214,15 +6214,15 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44"/>
       <c r="B24" s="45"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="48"/>
       <c r="J24" s="19"/>
       <c r="K24" s="13"/>
@@ -6237,15 +6237,15 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44"/>
       <c r="B25" s="45"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="48"/>
       <c r="J25" s="19"/>
       <c r="K25" s="13"/>
@@ -6260,15 +6260,15 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="44"/>
       <c r="B26" s="45"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="48"/>
       <c r="J26" s="19"/>
       <c r="K26" s="13"/>
@@ -6283,15 +6283,15 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="48"/>
       <c r="J27" s="19"/>
       <c r="K27" s="13"/>
@@ -6306,15 +6306,15 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="44"/>
       <c r="B28" s="45"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="48"/>
       <c r="J28" s="19"/>
       <c r="K28" s="13"/>
@@ -6329,15 +6329,15 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44"/>
       <c r="B29" s="45"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="48"/>
       <c r="J29" s="19"/>
       <c r="K29" s="13"/>
@@ -6352,15 +6352,15 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="44"/>
       <c r="B30" s="45"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="48"/>
       <c r="J30" s="19"/>
       <c r="K30" s="13"/>
@@ -6375,15 +6375,15 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="44"/>
       <c r="B31" s="45"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="48"/>
       <c r="J31" s="19"/>
       <c r="K31" s="13"/>
@@ -6398,15 +6398,15 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="44"/>
       <c r="B32" s="45"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
       <c r="I32" s="48"/>
       <c r="J32" s="19"/>
       <c r="K32" s="13"/>
@@ -6421,15 +6421,15 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="44"/>
       <c r="B33" s="45"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
       <c r="I33" s="48"/>
       <c r="J33" s="19"/>
       <c r="K33" s="13"/>
@@ -6444,15 +6444,15 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="44"/>
       <c r="B34" s="45"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="48"/>
       <c r="J34" s="19"/>
       <c r="K34" s="13"/>
@@ -6467,15 +6467,15 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="44"/>
       <c r="B35" s="45"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="48"/>
       <c r="J35" s="19"/>
       <c r="K35" s="13"/>
@@ -6490,15 +6490,15 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="44"/>
       <c r="B36" s="45"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
       <c r="I36" s="48"/>
       <c r="J36" s="19"/>
       <c r="K36" s="13"/>
@@ -6513,15 +6513,15 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
       <c r="I37" s="48"/>
       <c r="J37" s="19"/>
       <c r="K37" s="13"/>
@@ -6536,15 +6536,15 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="44"/>
       <c r="B38" s="45"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
       <c r="I38" s="48"/>
       <c r="J38" s="19"/>
       <c r="K38" s="13"/>
@@ -6559,15 +6559,15 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="44"/>
       <c r="B39" s="45"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
       <c r="I39" s="48"/>
       <c r="J39" s="19"/>
       <c r="K39" s="13"/>
@@ -6582,15 +6582,15 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="44"/>
       <c r="B40" s="45"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
       <c r="I40" s="48"/>
       <c r="J40" s="19"/>
       <c r="K40" s="13"/>
@@ -6605,15 +6605,15 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="44"/>
       <c r="B41" s="45"/>
       <c r="C41" s="19"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
       <c r="I41" s="48"/>
       <c r="J41" s="19"/>
       <c r="K41" s="13"/>
@@ -6628,15 +6628,15 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="48"/>
       <c r="J42" s="19"/>
       <c r="K42" s="13"/>
@@ -6651,15 +6651,15 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="44"/>
       <c r="B43" s="45"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
       <c r="I43" s="48"/>
       <c r="J43" s="19"/>
       <c r="K43" s="13"/>
@@ -6674,15 +6674,15 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="44"/>
       <c r="B44" s="45"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
       <c r="I44" s="48"/>
       <c r="J44" s="19"/>
       <c r="K44" s="13"/>
@@ -6697,15 +6697,15 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="44"/>
       <c r="B45" s="45"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
       <c r="I45" s="48"/>
       <c r="J45" s="19"/>
       <c r="K45" s="13"/>
@@ -6720,15 +6720,15 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="44"/>
       <c r="B46" s="45"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
       <c r="I46" s="48"/>
       <c r="J46" s="19"/>
       <c r="K46" s="13"/>
@@ -6743,15 +6743,15 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="44"/>
       <c r="B47" s="45"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
       <c r="I47" s="48"/>
       <c r="J47" s="19"/>
       <c r="K47" s="13"/>
@@ -6766,15 +6766,15 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="44"/>
       <c r="B48" s="45"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
       <c r="I48" s="48"/>
       <c r="J48" s="19"/>
       <c r="K48" s="13"/>
@@ -6789,15 +6789,15 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="44"/>
       <c r="B49" s="45"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
       <c r="I49" s="48"/>
       <c r="J49" s="19"/>
       <c r="K49" s="13"/>
@@ -6812,15 +6812,15 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="44"/>
       <c r="B50" s="45"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
       <c r="I50" s="48"/>
       <c r="J50" s="19"/>
       <c r="K50" s="13"/>
@@ -6835,15 +6835,15 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="44"/>
       <c r="B51" s="45"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
       <c r="I51" s="48"/>
       <c r="J51" s="19"/>
       <c r="K51" s="13"/>
@@ -6858,15 +6858,15 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="44"/>
       <c r="B52" s="45"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
       <c r="I52" s="48"/>
       <c r="J52" s="19"/>
       <c r="K52" s="13"/>
@@ -6881,15 +6881,15 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="44"/>
       <c r="B53" s="45"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
       <c r="I53" s="48"/>
       <c r="J53" s="19"/>
       <c r="K53" s="13"/>
@@ -6904,15 +6904,15 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="44"/>
       <c r="B54" s="45"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
       <c r="I54" s="48"/>
       <c r="J54" s="19"/>
       <c r="K54" s="13"/>
@@ -6927,15 +6927,15 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="44"/>
       <c r="B55" s="45"/>
       <c r="C55" s="19"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
       <c r="I55" s="48"/>
       <c r="J55" s="19"/>
       <c r="K55" s="13"/>
@@ -6950,15 +6950,15 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="44"/>
       <c r="B56" s="45"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
       <c r="I56" s="48"/>
       <c r="J56" s="19"/>
       <c r="K56" s="13"/>
@@ -6973,15 +6973,15 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="44"/>
       <c r="B57" s="46"/>
       <c r="C57" s="19"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
       <c r="I57" s="48"/>
       <c r="J57" s="20"/>
       <c r="K57" s="13"/>
@@ -6996,15 +6996,15 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="44"/>
       <c r="B58" s="45"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
       <c r="I58" s="48"/>
       <c r="J58" s="19"/>
       <c r="K58" s="13"/>
@@ -7019,15 +7019,15 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="44"/>
       <c r="B59" s="45"/>
       <c r="C59" s="19"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
       <c r="I59" s="48"/>
       <c r="J59" s="19"/>
       <c r="K59" s="13"/>
@@ -7042,15 +7042,15 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="44"/>
       <c r="B60" s="46"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
       <c r="I60" s="48"/>
       <c r="J60" s="20"/>
       <c r="K60" s="13"/>
@@ -7065,15 +7065,15 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="44"/>
       <c r="B61" s="45"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
       <c r="I61" s="48"/>
       <c r="J61" s="19"/>
       <c r="K61" s="13"/>
@@ -7088,15 +7088,15 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="44"/>
       <c r="B62" s="45"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
       <c r="I62" s="48"/>
       <c r="J62" s="19"/>
       <c r="K62" s="13"/>
@@ -7111,15 +7111,15 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="44"/>
       <c r="B63" s="46"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
       <c r="I63" s="48"/>
       <c r="J63" s="20"/>
       <c r="K63" s="13"/>
@@ -7134,15 +7134,15 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="44"/>
       <c r="B64" s="45"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
       <c r="I64" s="48"/>
       <c r="J64" s="19"/>
       <c r="K64" s="13"/>
@@ -7157,15 +7157,15 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="44"/>
       <c r="B65" s="45"/>
       <c r="C65" s="19"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
       <c r="I65" s="48"/>
       <c r="J65" s="19"/>
       <c r="K65" s="13"/>
@@ -7180,15 +7180,15 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="44"/>
       <c r="B66" s="46"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
       <c r="I66" s="48"/>
       <c r="J66" s="20"/>
       <c r="K66" s="13"/>
@@ -7203,15 +7203,15 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="44"/>
       <c r="B67" s="45"/>
       <c r="C67" s="19"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
       <c r="I67" s="48"/>
       <c r="J67" s="19"/>
       <c r="K67" s="13"/>
@@ -7226,15 +7226,15 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="44"/>
       <c r="B68" s="45"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
       <c r="I68" s="48"/>
       <c r="J68" s="19"/>
       <c r="K68" s="13"/>
@@ -7249,15 +7249,15 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="44"/>
       <c r="B69" s="46"/>
       <c r="C69" s="19"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
       <c r="I69" s="48"/>
       <c r="J69" s="20"/>
       <c r="K69" s="13"/>
@@ -7272,15 +7272,15 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="44"/>
       <c r="B70" s="45"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
       <c r="I70" s="48"/>
       <c r="J70" s="19"/>
       <c r="K70" s="13"/>
@@ -7295,15 +7295,15 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="44"/>
       <c r="B71" s="45"/>
       <c r="C71" s="19"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
       <c r="I71" s="48"/>
       <c r="J71" s="19"/>
       <c r="K71" s="13"/>
@@ -7318,15 +7318,15 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="44"/>
       <c r="B72" s="46"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
       <c r="I72" s="48"/>
       <c r="J72" s="20"/>
       <c r="K72" s="13"/>
@@ -7341,15 +7341,15 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="44"/>
       <c r="B73" s="45"/>
       <c r="C73" s="19"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
       <c r="I73" s="48"/>
       <c r="J73" s="19"/>
       <c r="K73" s="13"/>
@@ -7364,15 +7364,15 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="44"/>
       <c r="B74" s="45"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
       <c r="I74" s="48"/>
       <c r="J74" s="19"/>
       <c r="K74" s="13"/>
@@ -7387,15 +7387,15 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="44"/>
       <c r="B75" s="46"/>
       <c r="C75" s="19"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
       <c r="I75" s="48"/>
       <c r="J75" s="20"/>
       <c r="K75" s="13"/>
@@ -7410,15 +7410,15 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="44"/>
       <c r="B76" s="45"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
       <c r="I76" s="48"/>
       <c r="J76" s="19"/>
       <c r="K76" s="13"/>
@@ -7433,15 +7433,15 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="44"/>
       <c r="B77" s="45"/>
       <c r="C77" s="19"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
       <c r="I77" s="48"/>
       <c r="J77" s="19"/>
       <c r="K77" s="13"/>
@@ -7456,15 +7456,15 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="44"/>
       <c r="B78" s="46"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
       <c r="I78" s="48"/>
       <c r="J78" s="20"/>
       <c r="K78" s="13"/>
@@ -7479,15 +7479,15 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="44"/>
       <c r="B79" s="45"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
       <c r="I79" s="48"/>
       <c r="J79" s="19"/>
       <c r="K79" s="13"/>
@@ -7502,15 +7502,15 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="44"/>
       <c r="B80" s="45"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
       <c r="I80" s="48"/>
       <c r="J80" s="19"/>
       <c r="K80" s="13"/>
@@ -7525,15 +7525,15 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="44"/>
       <c r="B81" s="46"/>
       <c r="C81" s="19"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
       <c r="I81" s="48"/>
       <c r="J81" s="20"/>
       <c r="K81" s="13"/>
@@ -7548,15 +7548,15 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="44"/>
       <c r="B82" s="45"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
       <c r="I82" s="48"/>
       <c r="J82" s="19"/>
       <c r="K82" s="13"/>
@@ -7571,15 +7571,15 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="44"/>
       <c r="B83" s="45"/>
       <c r="C83" s="19"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
       <c r="I83" s="48"/>
       <c r="J83" s="19"/>
       <c r="K83" s="13"/>
@@ -7594,15 +7594,15 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="44"/>
       <c r="B84" s="46"/>
       <c r="C84" s="19"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
       <c r="I84" s="48"/>
       <c r="J84" s="20"/>
       <c r="K84" s="13"/>
@@ -7617,15 +7617,15 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="44"/>
       <c r="B85" s="45"/>
       <c r="C85" s="19"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
       <c r="I85" s="48"/>
       <c r="J85" s="19"/>
       <c r="K85" s="13"/>
@@ -7640,15 +7640,15 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="44"/>
       <c r="B86" s="45"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
       <c r="I86" s="48"/>
       <c r="J86" s="19"/>
       <c r="K86" s="13"/>
@@ -7663,15 +7663,15 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="44"/>
       <c r="B87" s="46"/>
       <c r="C87" s="19"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
       <c r="I87" s="48"/>
       <c r="J87" s="20"/>
       <c r="K87" s="13"/>
@@ -7686,15 +7686,15 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="44"/>
       <c r="B88" s="45"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
       <c r="I88" s="48"/>
       <c r="J88" s="19"/>
       <c r="K88" s="13"/>
@@ -7709,15 +7709,15 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="44"/>
       <c r="B89" s="45"/>
       <c r="C89" s="19"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
       <c r="I89" s="48"/>
       <c r="J89" s="19"/>
       <c r="K89" s="13"/>
@@ -7732,15 +7732,15 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="44"/>
       <c r="B90" s="45"/>
       <c r="C90" s="19"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
       <c r="I90" s="48"/>
       <c r="J90" s="19"/>
       <c r="K90" s="13"/>
@@ -7755,15 +7755,15 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="44"/>
       <c r="B91" s="45"/>
       <c r="C91" s="19"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
       <c r="I91" s="48"/>
       <c r="J91" s="19"/>
       <c r="K91" s="13"/>
@@ -7778,15 +7778,15 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="44"/>
       <c r="B92" s="46"/>
       <c r="C92" s="19"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
       <c r="I92" s="48"/>
       <c r="J92" s="20"/>
       <c r="K92" s="13"/>
@@ -7801,15 +7801,15 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="44"/>
       <c r="B93" s="46"/>
       <c r="C93" s="19"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
       <c r="I93" s="48"/>
       <c r="J93" s="20"/>
       <c r="K93" s="13"/>
@@ -7824,15 +7824,15 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="44"/>
       <c r="B94" s="45"/>
       <c r="C94" s="19"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
       <c r="I94" s="48"/>
       <c r="J94" s="19"/>
       <c r="K94" s="13"/>
@@ -7847,15 +7847,15 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="44"/>
       <c r="B95" s="45"/>
       <c r="C95" s="19"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
       <c r="I95" s="48"/>
       <c r="J95" s="19"/>
       <c r="K95" s="13"/>
@@ -7870,15 +7870,15 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
     </row>
-    <row r="96" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="44"/>
       <c r="B96" s="45"/>
       <c r="C96" s="19"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
       <c r="I96" s="48"/>
       <c r="J96" s="19"/>
       <c r="K96" s="13"/>
@@ -7893,15 +7893,15 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
     </row>
-    <row r="97" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="44"/>
       <c r="B97" s="45"/>
       <c r="C97" s="19"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
       <c r="I97" s="48"/>
       <c r="J97" s="19"/>
       <c r="K97" s="13"/>
@@ -7916,15 +7916,15 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
     </row>
-    <row r="98" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="44"/>
       <c r="B98" s="45"/>
       <c r="C98" s="19"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
       <c r="I98" s="48"/>
       <c r="J98" s="19"/>
       <c r="K98" s="13"/>
@@ -7939,15 +7939,15 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
     </row>
-    <row r="99" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="44"/>
       <c r="B99" s="46"/>
       <c r="C99" s="19"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
       <c r="I99" s="48"/>
       <c r="J99" s="20"/>
       <c r="K99" s="13"/>
@@ -7962,15 +7962,15 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
     </row>
-    <row r="100" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="44"/>
       <c r="B100" s="47"/>
       <c r="C100" s="32"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="74"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="63"/>
       <c r="I100" s="49"/>
       <c r="J100" s="32"/>
       <c r="K100" s="33"/>
@@ -7985,19 +7985,19 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
     </row>
-    <row r="101" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="44"/>
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="73"/>
+      <c r="J101" s="73"/>
       <c r="K101" s="25"/>
       <c r="L101" s="31"/>
       <c r="M101" s="2"/>
@@ -8010,7 +8010,7 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
     </row>
-    <row r="102" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
@@ -8032,7 +8032,7 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
     </row>
-    <row r="103" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
       <c r="M103" s="2"/>
@@ -8045,7 +8045,7 @@
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
     </row>
-    <row r="104" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -8056,7 +8056,7 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
     </row>
-    <row r="105" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
@@ -8078,7 +8078,7 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
     </row>
-    <row r="106" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
@@ -8100,7 +8100,7 @@
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
     </row>
-    <row r="107" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
@@ -8122,7 +8122,7 @@
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
     </row>
-    <row r="108" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
@@ -8144,7 +8144,7 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
     </row>
-    <row r="109" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
@@ -8166,7 +8166,7 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
     </row>
-    <row r="110" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
@@ -8188,7 +8188,7 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
     </row>
-    <row r="111" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
@@ -8210,7 +8210,7 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
     </row>
-    <row r="112" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
@@ -8232,7 +8232,7 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
     </row>
-    <row r="113" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
@@ -8254,7 +8254,7 @@
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
     </row>
-    <row r="114" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
@@ -8276,7 +8276,7 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
@@ -8298,7 +8298,7 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
@@ -8320,7 +8320,7 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
@@ -8342,7 +8342,7 @@
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
     </row>
-    <row r="118" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
@@ -8364,7 +8364,7 @@
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
     </row>
-    <row r="119" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
@@ -8386,7 +8386,7 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
     </row>
-    <row r="120" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
@@ -8408,7 +8408,7 @@
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
     </row>
-    <row r="121" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -8430,7 +8430,7 @@
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
     </row>
-    <row r="122" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -8452,7 +8452,7 @@
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
     </row>
-    <row r="123" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
@@ -8474,7 +8474,7 @@
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
     </row>
-    <row r="124" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
@@ -8496,7 +8496,7 @@
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
     </row>
-    <row r="125" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
@@ -8518,7 +8518,7 @@
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
     </row>
-    <row r="126" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
@@ -8540,7 +8540,7 @@
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
     </row>
-    <row r="127" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
@@ -8562,7 +8562,7 @@
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
     </row>
-    <row r="128" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
@@ -8584,7 +8584,7 @@
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
     </row>
-    <row r="129" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
@@ -8605,7 +8605,7 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
     </row>
-    <row r="130" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
@@ -8618,7 +8618,7 @@
       <c r="K130" s="14"/>
       <c r="L130" s="14"/>
     </row>
-    <row r="131" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
@@ -8631,7 +8631,7 @@
       <c r="K131" s="14"/>
       <c r="L131" s="14"/>
     </row>
-    <row r="132" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
       <c r="D132" s="14"/>
@@ -8644,7 +8644,7 @@
       <c r="K132" s="14"/>
       <c r="L132" s="14"/>
     </row>
-    <row r="133" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
@@ -8657,7 +8657,7 @@
       <c r="K133" s="14"/>
       <c r="L133" s="14"/>
     </row>
-    <row r="134" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
@@ -8670,7 +8670,7 @@
       <c r="K134" s="14"/>
       <c r="L134" s="14"/>
     </row>
-    <row r="135" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
@@ -8683,7 +8683,7 @@
       <c r="K135" s="14"/>
       <c r="L135" s="14"/>
     </row>
-    <row r="136" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
@@ -8696,7 +8696,7 @@
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
     </row>
-    <row r="137" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
@@ -8709,7 +8709,7 @@
       <c r="K137" s="14"/>
       <c r="L137" s="14"/>
     </row>
-    <row r="138" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
       <c r="D138" s="14"/>
@@ -8722,7 +8722,7 @@
       <c r="K138" s="14"/>
       <c r="L138" s="14"/>
     </row>
-    <row r="139" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
@@ -8735,7 +8735,7 @@
       <c r="K139" s="14"/>
       <c r="L139" s="14"/>
     </row>
-    <row r="140" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
@@ -8748,7 +8748,7 @@
       <c r="K140" s="14"/>
       <c r="L140" s="14"/>
     </row>
-    <row r="141" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
       <c r="D141" s="14"/>
@@ -8761,7 +8761,7 @@
       <c r="K141" s="14"/>
       <c r="L141" s="14"/>
     </row>
-    <row r="142" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
       <c r="D142" s="14"/>
@@ -8774,7 +8774,7 @@
       <c r="K142" s="14"/>
       <c r="L142" s="14"/>
     </row>
-    <row r="143" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
@@ -8787,7 +8787,7 @@
       <c r="K143" s="14"/>
       <c r="L143" s="14"/>
     </row>
-    <row r="144" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
@@ -8800,7 +8800,7 @@
       <c r="K144" s="14"/>
       <c r="L144" s="14"/>
     </row>
-    <row r="145" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
       <c r="D145" s="14"/>
@@ -8813,7 +8813,7 @@
       <c r="K145" s="14"/>
       <c r="L145" s="14"/>
     </row>
-    <row r="146" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
@@ -8826,7 +8826,7 @@
       <c r="K146" s="14"/>
       <c r="L146" s="14"/>
     </row>
-    <row r="147" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
@@ -8839,7 +8839,7 @@
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
     </row>
-    <row r="148" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
       <c r="D148" s="14"/>
@@ -8852,7 +8852,7 @@
       <c r="K148" s="14"/>
       <c r="L148" s="14"/>
     </row>
-    <row r="149" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
       <c r="D149" s="14"/>
@@ -8865,7 +8865,7 @@
       <c r="K149" s="14"/>
       <c r="L149" s="14"/>
     </row>
-    <row r="150" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
@@ -8878,7 +8878,7 @@
       <c r="K150" s="14"/>
       <c r="L150" s="14"/>
     </row>
-    <row r="151" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
       <c r="D151" s="14"/>
@@ -8891,7 +8891,7 @@
       <c r="K151" s="14"/>
       <c r="L151" s="14"/>
     </row>
-    <row r="152" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
@@ -8904,7 +8904,7 @@
       <c r="K152" s="14"/>
       <c r="L152" s="14"/>
     </row>
-    <row r="153" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
       <c r="D153" s="14"/>
@@ -8917,7 +8917,7 @@
       <c r="K153" s="14"/>
       <c r="L153" s="14"/>
     </row>
-    <row r="154" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
       <c r="D154" s="14"/>
@@ -8930,7 +8930,7 @@
       <c r="K154" s="14"/>
       <c r="L154" s="14"/>
     </row>
-    <row r="155" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
@@ -8943,7 +8943,7 @@
       <c r="K155" s="14"/>
       <c r="L155" s="14"/>
     </row>
-    <row r="156" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
@@ -8956,7 +8956,7 @@
       <c r="K156" s="14"/>
       <c r="L156" s="14"/>
     </row>
-    <row r="157" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
@@ -8969,7 +8969,7 @@
       <c r="K157" s="14"/>
       <c r="L157" s="14"/>
     </row>
-    <row r="158" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
@@ -8982,7 +8982,7 @@
       <c r="K158" s="14"/>
       <c r="L158" s="14"/>
     </row>
-    <row r="159" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
@@ -8995,7 +8995,7 @@
       <c r="K159" s="14"/>
       <c r="L159" s="14"/>
     </row>
-    <row r="160" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
@@ -9008,7 +9008,7 @@
       <c r="K160" s="14"/>
       <c r="L160" s="14"/>
     </row>
-    <row r="161" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
@@ -9021,7 +9021,7 @@
       <c r="K161" s="14"/>
       <c r="L161" s="14"/>
     </row>
-    <row r="162" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
@@ -9034,7 +9034,7 @@
       <c r="K162" s="14"/>
       <c r="L162" s="14"/>
     </row>
-    <row r="163" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
@@ -9047,7 +9047,7 @@
       <c r="K163" s="14"/>
       <c r="L163" s="14"/>
     </row>
-    <row r="164" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
@@ -9060,7 +9060,7 @@
       <c r="K164" s="14"/>
       <c r="L164" s="14"/>
     </row>
-    <row r="165" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
@@ -9073,7 +9073,7 @@
       <c r="K165" s="14"/>
       <c r="L165" s="14"/>
     </row>
-    <row r="166" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
@@ -9086,7 +9086,7 @@
       <c r="K166" s="14"/>
       <c r="L166" s="14"/>
     </row>
-    <row r="167" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
@@ -9099,7 +9099,7 @@
       <c r="K167" s="14"/>
       <c r="L167" s="14"/>
     </row>
-    <row r="168" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
@@ -9112,7 +9112,7 @@
       <c r="K168" s="14"/>
       <c r="L168" s="14"/>
     </row>
-    <row r="169" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
@@ -9125,7 +9125,7 @@
       <c r="K169" s="14"/>
       <c r="L169" s="14"/>
     </row>
-    <row r="170" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
@@ -9138,7 +9138,7 @@
       <c r="K170" s="14"/>
       <c r="L170" s="14"/>
     </row>
-    <row r="171" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
@@ -9151,7 +9151,7 @@
       <c r="K171" s="14"/>
       <c r="L171" s="14"/>
     </row>
-    <row r="172" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
@@ -9164,7 +9164,7 @@
       <c r="K172" s="14"/>
       <c r="L172" s="14"/>
     </row>
-    <row r="173" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
@@ -9177,7 +9177,7 @@
       <c r="K173" s="14"/>
       <c r="L173" s="14"/>
     </row>
-    <row r="174" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
@@ -9190,7 +9190,7 @@
       <c r="K174" s="14"/>
       <c r="L174" s="14"/>
     </row>
-    <row r="175" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
@@ -9203,7 +9203,7 @@
       <c r="K175" s="14"/>
       <c r="L175" s="14"/>
     </row>
-    <row r="176" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
@@ -9216,7 +9216,7 @@
       <c r="K176" s="14"/>
       <c r="L176" s="14"/>
     </row>
-    <row r="177" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
@@ -9229,7 +9229,7 @@
       <c r="K177" s="14"/>
       <c r="L177" s="14"/>
     </row>
-    <row r="178" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
@@ -9242,7 +9242,7 @@
       <c r="K178" s="14"/>
       <c r="L178" s="14"/>
     </row>
-    <row r="179" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
@@ -9255,7 +9255,7 @@
       <c r="K179" s="14"/>
       <c r="L179" s="14"/>
     </row>
-    <row r="180" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
@@ -9268,7 +9268,7 @@
       <c r="K180" s="14"/>
       <c r="L180" s="14"/>
     </row>
-    <row r="181" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
@@ -9281,7 +9281,7 @@
       <c r="K181" s="14"/>
       <c r="L181" s="14"/>
     </row>
-    <row r="182" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
@@ -9294,7 +9294,7 @@
       <c r="K182" s="14"/>
       <c r="L182" s="14"/>
     </row>
-    <row r="183" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
@@ -9307,7 +9307,7 @@
       <c r="K183" s="14"/>
       <c r="L183" s="14"/>
     </row>
-    <row r="184" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
@@ -9320,7 +9320,7 @@
       <c r="K184" s="14"/>
       <c r="L184" s="14"/>
     </row>
-    <row r="185" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
@@ -9333,7 +9333,7 @@
       <c r="K185" s="14"/>
       <c r="L185" s="14"/>
     </row>
-    <row r="186" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
@@ -9346,7 +9346,7 @@
       <c r="K186" s="14"/>
       <c r="L186" s="14"/>
     </row>
-    <row r="187" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
@@ -9359,7 +9359,7 @@
       <c r="K187" s="14"/>
       <c r="L187" s="14"/>
     </row>
-    <row r="188" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
@@ -9372,7 +9372,7 @@
       <c r="K188" s="14"/>
       <c r="L188" s="14"/>
     </row>
-    <row r="189" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
@@ -9385,7 +9385,7 @@
       <c r="K189" s="14"/>
       <c r="L189" s="14"/>
     </row>
-    <row r="190" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
@@ -9398,7 +9398,7 @@
       <c r="K190" s="14"/>
       <c r="L190" s="14"/>
     </row>
-    <row r="191" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
@@ -9411,7 +9411,7 @@
       <c r="K191" s="14"/>
       <c r="L191" s="14"/>
     </row>
-    <row r="192" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
@@ -9424,7 +9424,7 @@
       <c r="K192" s="14"/>
       <c r="L192" s="14"/>
     </row>
-    <row r="193" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
@@ -9437,7 +9437,7 @@
       <c r="K193" s="14"/>
       <c r="L193" s="14"/>
     </row>
-    <row r="194" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
@@ -9450,7 +9450,7 @@
       <c r="K194" s="14"/>
       <c r="L194" s="14"/>
     </row>
-    <row r="195" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
       <c r="D195" s="14"/>
@@ -9463,7 +9463,7 @@
       <c r="K195" s="14"/>
       <c r="L195" s="14"/>
     </row>
-    <row r="196" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
@@ -9476,7 +9476,7 @@
       <c r="K196" s="14"/>
       <c r="L196" s="14"/>
     </row>
-    <row r="197" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
@@ -9489,7 +9489,7 @@
       <c r="K197" s="14"/>
       <c r="L197" s="14"/>
     </row>
-    <row r="198" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
@@ -9502,7 +9502,7 @@
       <c r="K198" s="14"/>
       <c r="L198" s="14"/>
     </row>
-    <row r="199" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
       <c r="D199" s="14"/>
@@ -9515,7 +9515,7 @@
       <c r="K199" s="14"/>
       <c r="L199" s="14"/>
     </row>
-    <row r="200" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
       <c r="D200" s="14"/>
@@ -9528,7 +9528,7 @@
       <c r="K200" s="14"/>
       <c r="L200" s="14"/>
     </row>
-    <row r="201" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
       <c r="D201" s="14"/>
@@ -9541,7 +9541,7 @@
       <c r="K201" s="14"/>
       <c r="L201" s="14"/>
     </row>
-    <row r="202" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
@@ -9554,7 +9554,7 @@
       <c r="K202" s="14"/>
       <c r="L202" s="14"/>
     </row>
-    <row r="203" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
@@ -9567,7 +9567,7 @@
       <c r="K203" s="14"/>
       <c r="L203" s="14"/>
     </row>
-    <row r="204" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
@@ -9580,7 +9580,7 @@
       <c r="K204" s="14"/>
       <c r="L204" s="14"/>
     </row>
-    <row r="205" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
@@ -9595,6 +9595,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="B101:J101"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K3:L6"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
     <mergeCell ref="D97:H97"/>
     <mergeCell ref="D98:H98"/>
     <mergeCell ref="J4:J6"/>
@@ -9619,83 +9696,6 @@
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="K3:L6"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="B101:J101"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9708,11 +9708,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD1A47E-EED7-49DC-BDD7-4540631698FD}">
   <dimension ref="A1:AA208"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="19.625" style="37" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="37" customWidth="1"/>
@@ -9724,7 +9724,7 @@
     <col min="28" max="16384" width="8.75" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
     </row>
-    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
@@ -9810,7 +9810,7 @@
       <c r="Z2" s="36"/>
       <c r="AA2" s="36"/>
     </row>
-    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="39" t="s">
         <v>28</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="Z3" s="36"/>
       <c r="AA3" s="36"/>
     </row>
-    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="36" t="s">
         <v>33</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="Z4" s="36"/>
       <c r="AA4" s="36"/>
     </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
         <v>39</v>
       </c>
@@ -9939,7 +9939,7 @@
       <c r="Z5" s="36"/>
       <c r="AA5" s="36"/>
     </row>
-    <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="36" t="s">
         <v>44</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="Z6" s="36"/>
       <c r="AA6" s="36"/>
     </row>
-    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="36" t="s">
         <v>47</v>
       </c>
@@ -10016,7 +10016,7 @@
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
     </row>
-    <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
         <v>51</v>
       </c>
@@ -10055,7 +10055,7 @@
       <c r="Z8" s="36"/>
       <c r="AA8" s="36"/>
     </row>
-    <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="36" t="s">
         <v>54</v>
       </c>
@@ -10094,7 +10094,7 @@
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
     </row>
-    <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
         <v>58</v>
       </c>
@@ -10133,7 +10133,7 @@
       <c r="Z10" s="36"/>
       <c r="AA10" s="36"/>
     </row>
-    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
         <v>63</v>
       </c>
@@ -10170,7 +10170,7 @@
       <c r="Z11" s="36"/>
       <c r="AA11" s="36"/>
     </row>
-    <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="36" t="s">
         <v>66</v>
       </c>
@@ -10209,7 +10209,7 @@
       <c r="Z12" s="36"/>
       <c r="AA12" s="36"/>
     </row>
-    <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="36" t="s">
         <v>71</v>
       </c>
@@ -10244,7 +10244,7 @@
       <c r="Z13" s="36"/>
       <c r="AA13" s="36"/>
     </row>
-    <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="36" t="s">
         <v>74</v>
       </c>
@@ -10283,7 +10283,7 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
     </row>
-    <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="36" t="s">
         <v>79</v>
       </c>
@@ -10318,7 +10318,7 @@
       <c r="Z15" s="36"/>
       <c r="AA15" s="36"/>
     </row>
-    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="36" t="s">
         <v>82</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="Z16" s="36"/>
       <c r="AA16" s="36"/>
     </row>
-    <row r="17" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="36" t="s">
         <v>87</v>
       </c>
@@ -10396,7 +10396,7 @@
       <c r="Z17" s="36"/>
       <c r="AA17" s="36"/>
     </row>
-    <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="36" t="s">
         <v>92</v>
       </c>
@@ -10431,7 +10431,7 @@
       <c r="Z18" s="36"/>
       <c r="AA18" s="36"/>
     </row>
-    <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="36" t="s">
         <v>95</v>
       </c>
@@ -10470,7 +10470,7 @@
       <c r="Z19" s="36"/>
       <c r="AA19" s="36"/>
     </row>
-    <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="36" t="s">
         <v>99</v>
       </c>
@@ -10509,7 +10509,7 @@
       <c r="Z20" s="36"/>
       <c r="AA20" s="36"/>
     </row>
-    <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="36" t="s">
         <v>104</v>
       </c>
@@ -10548,7 +10548,7 @@
       <c r="Z21" s="36"/>
       <c r="AA21" s="36"/>
     </row>
-    <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="36" t="s">
         <v>109</v>
       </c>
@@ -10587,7 +10587,7 @@
       <c r="Z22" s="36"/>
       <c r="AA22" s="36"/>
     </row>
-    <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="36" t="s">
         <v>113</v>
       </c>
@@ -10626,7 +10626,7 @@
       <c r="Z23" s="36"/>
       <c r="AA23" s="36"/>
     </row>
-    <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="36" t="s">
         <v>118</v>
       </c>
@@ -10665,7 +10665,7 @@
       <c r="Z24" s="36"/>
       <c r="AA24" s="36"/>
     </row>
-    <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="36" t="s">
         <v>123</v>
       </c>
@@ -10704,7 +10704,7 @@
       <c r="Z25" s="36"/>
       <c r="AA25" s="36"/>
     </row>
-    <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="36" t="s">
         <v>128</v>
       </c>
@@ -10743,7 +10743,7 @@
       <c r="Z26" s="36"/>
       <c r="AA26" s="36"/>
     </row>
-    <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="36" t="s">
         <v>133</v>
       </c>
@@ -10782,7 +10782,7 @@
       <c r="Z27" s="36"/>
       <c r="AA27" s="36"/>
     </row>
-    <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="36" t="s">
         <v>135</v>
       </c>
@@ -10821,7 +10821,7 @@
       <c r="Z28" s="36"/>
       <c r="AA28" s="36"/>
     </row>
-    <row r="29" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="36" t="s">
         <v>140</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="Z29" s="36"/>
       <c r="AA29" s="36"/>
     </row>
-    <row r="30" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="36" t="s">
         <v>143</v>
       </c>
@@ -10899,7 +10899,7 @@
       <c r="Z30" s="36"/>
       <c r="AA30" s="36"/>
     </row>
-    <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="36" t="s">
         <v>147</v>
       </c>
@@ -10938,7 +10938,7 @@
       <c r="Z31" s="36"/>
       <c r="AA31" s="36"/>
     </row>
-    <row r="32" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="36" t="s">
         <v>149</v>
       </c>
@@ -10977,7 +10977,7 @@
       <c r="Z32" s="36"/>
       <c r="AA32" s="36"/>
     </row>
-    <row r="33" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="36" t="s">
         <v>153</v>
       </c>
@@ -11016,7 +11016,7 @@
       <c r="Z33" s="36"/>
       <c r="AA33" s="36"/>
     </row>
-    <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="36" t="s">
         <v>155</v>
       </c>
@@ -11055,7 +11055,7 @@
       <c r="Z34" s="36"/>
       <c r="AA34" s="36"/>
     </row>
-    <row r="35" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="36" t="s">
         <v>159</v>
       </c>
@@ -11094,7 +11094,7 @@
       <c r="Z35" s="36"/>
       <c r="AA35" s="36"/>
     </row>
-    <row r="36" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="36" t="s">
         <v>161</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="Z36" s="36"/>
       <c r="AA36" s="36"/>
     </row>
-    <row r="37" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>165</v>
       </c>
@@ -11172,7 +11172,7 @@
       <c r="Z37" s="36"/>
       <c r="AA37" s="36"/>
     </row>
-    <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="36" t="s">
         <v>169</v>
       </c>
@@ -11211,7 +11211,7 @@
       <c r="Z38" s="36"/>
       <c r="AA38" s="36"/>
     </row>
-    <row r="39" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="39" t="s">
         <v>173</v>
       </c>
@@ -11250,7 +11250,7 @@
       <c r="Z39" s="36"/>
       <c r="AA39" s="36"/>
     </row>
-    <row r="40" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="39" t="s">
         <v>175</v>
       </c>
@@ -11289,7 +11289,7 @@
       <c r="Z40" s="36"/>
       <c r="AA40" s="36"/>
     </row>
-    <row r="41" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="39" t="s">
         <v>180</v>
       </c>
@@ -11324,7 +11324,7 @@
       <c r="Z41" s="36"/>
       <c r="AA41" s="36"/>
     </row>
-    <row r="42" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="39" t="s">
         <v>183</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="Z42" s="36"/>
       <c r="AA42" s="36"/>
     </row>
-    <row r="43" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="39" t="s">
         <v>188</v>
       </c>
@@ -11400,7 +11400,7 @@
       <c r="Z43" s="36"/>
       <c r="AA43" s="36"/>
     </row>
-    <row r="44" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="39" t="s">
         <v>192</v>
       </c>
@@ -11439,7 +11439,7 @@
       <c r="Z44" s="36"/>
       <c r="AA44" s="36"/>
     </row>
-    <row r="45" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="39" t="s">
         <v>196</v>
       </c>
@@ -11478,7 +11478,7 @@
       <c r="Z45" s="36"/>
       <c r="AA45" s="36"/>
     </row>
-    <row r="46" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="39" t="s">
         <v>199</v>
       </c>
@@ -11513,7 +11513,7 @@
       <c r="Z46" s="36"/>
       <c r="AA46" s="36"/>
     </row>
-    <row r="47" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="39" t="s">
         <v>201</v>
       </c>
@@ -11552,7 +11552,7 @@
       <c r="Z47" s="36"/>
       <c r="AA47" s="36"/>
     </row>
-    <row r="48" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="39" t="s">
         <v>205</v>
       </c>
@@ -11591,11 +11591,11 @@
       <c r="Z48" s="36"/>
       <c r="AA48" s="36"/>
     </row>
-    <row r="49" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="37" t="s">
         <v>301</v>
       </c>
       <c r="C49" s="36"/>
@@ -11626,7 +11626,7 @@
       <c r="Z49" s="36"/>
       <c r="AA49" s="36"/>
     </row>
-    <row r="50" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="36"/>
@@ -11657,7 +11657,7 @@
       <c r="Z50" s="36"/>
       <c r="AA50" s="36"/>
     </row>
-    <row r="51" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="36"/>
@@ -11688,7 +11688,7 @@
       <c r="Z51" s="36"/>
       <c r="AA51" s="36"/>
     </row>
-    <row r="52" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="41" t="s">
@@ -11723,7 +11723,7 @@
       <c r="Z52" s="36"/>
       <c r="AA52" s="36"/>
     </row>
-    <row r="53" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="36"/>
@@ -11754,7 +11754,7 @@
       <c r="Z53" s="36"/>
       <c r="AA53" s="36"/>
     </row>
-    <row r="54" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="36"/>
@@ -11785,7 +11785,7 @@
       <c r="Z54" s="36"/>
       <c r="AA54" s="36"/>
     </row>
-    <row r="55" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="41" t="s">
@@ -11820,7 +11820,7 @@
       <c r="Z55" s="36"/>
       <c r="AA55" s="36"/>
     </row>
-    <row r="56" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="41" t="s">
@@ -11855,7 +11855,7 @@
       <c r="Z56" s="36"/>
       <c r="AA56" s="36"/>
     </row>
-    <row r="57" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="41" t="s">
@@ -11890,7 +11890,7 @@
       <c r="Z57" s="36"/>
       <c r="AA57" s="36"/>
     </row>
-    <row r="58" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="41" t="s">
@@ -11925,7 +11925,7 @@
       <c r="Z58" s="36"/>
       <c r="AA58" s="36"/>
     </row>
-    <row r="59" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="41" t="s">
@@ -11960,7 +11960,7 @@
       <c r="Z59" s="36"/>
       <c r="AA59" s="36"/>
     </row>
-    <row r="60" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="41" t="s">
@@ -11995,7 +11995,7 @@
       <c r="Z60" s="36"/>
       <c r="AA60" s="36"/>
     </row>
-    <row r="61" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="36"/>
@@ -12026,7 +12026,7 @@
       <c r="Z61" s="36"/>
       <c r="AA61" s="36"/>
     </row>
-    <row r="62" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="36"/>
@@ -12057,7 +12057,7 @@
       <c r="Z62" s="36"/>
       <c r="AA62" s="36"/>
     </row>
-    <row r="63" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="36"/>
@@ -12088,7 +12088,7 @@
       <c r="Z63" s="36"/>
       <c r="AA63" s="36"/>
     </row>
-    <row r="64" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="36"/>
@@ -12119,7 +12119,7 @@
       <c r="Z64" s="36"/>
       <c r="AA64" s="36"/>
     </row>
-    <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="36"/>
@@ -12150,7 +12150,7 @@
       <c r="Z65" s="36"/>
       <c r="AA65" s="36"/>
     </row>
-    <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="36"/>
@@ -12181,7 +12181,7 @@
       <c r="Z66" s="36"/>
       <c r="AA66" s="36"/>
     </row>
-    <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="36"/>
@@ -12212,7 +12212,7 @@
       <c r="Z67" s="36"/>
       <c r="AA67" s="36"/>
     </row>
-    <row r="68" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="36"/>
@@ -12243,7 +12243,7 @@
       <c r="Z68" s="36"/>
       <c r="AA68" s="36"/>
     </row>
-    <row r="69" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="36"/>
@@ -12274,7 +12274,7 @@
       <c r="Z69" s="36"/>
       <c r="AA69" s="36"/>
     </row>
-    <row r="70" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="36"/>
@@ -12305,7 +12305,7 @@
       <c r="Z70" s="36"/>
       <c r="AA70" s="36"/>
     </row>
-    <row r="71" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="41" t="s">
@@ -12340,7 +12340,7 @@
       <c r="Z71" s="36"/>
       <c r="AA71" s="36"/>
     </row>
-    <row r="72" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="41" t="s">
@@ -12375,7 +12375,7 @@
       <c r="Z72" s="36"/>
       <c r="AA72" s="36"/>
     </row>
-    <row r="73" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="36"/>
@@ -12406,7 +12406,7 @@
       <c r="Z73" s="36"/>
       <c r="AA73" s="36"/>
     </row>
-    <row r="74" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="36"/>
@@ -12437,7 +12437,7 @@
       <c r="Z74" s="36"/>
       <c r="AA74" s="36"/>
     </row>
-    <row r="75" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="36"/>
       <c r="B75" s="41"/>
       <c r="C75" s="36"/>
@@ -12468,7 +12468,7 @@
       <c r="Z75" s="36"/>
       <c r="AA75" s="36"/>
     </row>
-    <row r="76" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="36"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -12503,7 +12503,7 @@
       <c r="Z76" s="36"/>
       <c r="AA76" s="36"/>
     </row>
-    <row r="77" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="36"/>
       <c r="B77" s="41"/>
       <c r="C77" s="36"/>
@@ -12534,7 +12534,7 @@
       <c r="Z77" s="36"/>
       <c r="AA77" s="36"/>
     </row>
-    <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="36"/>
       <c r="B78" s="41"/>
       <c r="C78" s="36"/>
@@ -12565,7 +12565,7 @@
       <c r="Z78" s="36"/>
       <c r="AA78" s="36"/>
     </row>
-    <row r="79" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="36"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41" t="s">
@@ -12600,7 +12600,7 @@
       <c r="Z79" s="36"/>
       <c r="AA79" s="36"/>
     </row>
-    <row r="80" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="36"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41" t="s">
@@ -12635,7 +12635,7 @@
       <c r="Z80" s="36"/>
       <c r="AA80" s="36"/>
     </row>
-    <row r="81" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="36"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -12670,7 +12670,7 @@
       <c r="Z81" s="36"/>
       <c r="AA81" s="36"/>
     </row>
-    <row r="82" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="36"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41" t="s">
@@ -12705,7 +12705,7 @@
       <c r="Z82" s="36"/>
       <c r="AA82" s="36"/>
     </row>
-    <row r="83" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="36"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41" t="s">
@@ -12740,7 +12740,7 @@
       <c r="Z83" s="36"/>
       <c r="AA83" s="36"/>
     </row>
-    <row r="84" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="36"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -12775,7 +12775,7 @@
       <c r="Z84" s="36"/>
       <c r="AA84" s="36"/>
     </row>
-    <row r="85" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="36"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -12810,7 +12810,7 @@
       <c r="Z85" s="36"/>
       <c r="AA85" s="36"/>
     </row>
-    <row r="86" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="36"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -12845,7 +12845,7 @@
       <c r="Z86" s="36"/>
       <c r="AA86" s="36"/>
     </row>
-    <row r="87" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="36"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41" t="s">
@@ -12880,7 +12880,7 @@
       <c r="Z87" s="36"/>
       <c r="AA87" s="36"/>
     </row>
-    <row r="88" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="36"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41" t="s">
@@ -12915,7 +12915,7 @@
       <c r="Z88" s="36"/>
       <c r="AA88" s="36"/>
     </row>
-    <row r="89" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="36"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41" t="s">
@@ -12950,7 +12950,7 @@
       <c r="Z89" s="36"/>
       <c r="AA89" s="36"/>
     </row>
-    <row r="90" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="36"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -12985,7 +12985,7 @@
       <c r="Z90" s="36"/>
       <c r="AA90" s="36"/>
     </row>
-    <row r="91" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="36"/>
       <c r="B91" s="41"/>
       <c r="C91" s="41" t="s">
@@ -13020,7 +13020,7 @@
       <c r="Z91" s="36"/>
       <c r="AA91" s="36"/>
     </row>
-    <row r="92" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="36"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41" t="s">
@@ -13055,7 +13055,7 @@
       <c r="Z92" s="36"/>
       <c r="AA92" s="36"/>
     </row>
-    <row r="93" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="36"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41" t="s">
@@ -13090,7 +13090,7 @@
       <c r="Z93" s="36"/>
       <c r="AA93" s="36"/>
     </row>
-    <row r="94" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="36"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41" t="s">
@@ -13125,7 +13125,7 @@
       <c r="Z94" s="36"/>
       <c r="AA94" s="36"/>
     </row>
-    <row r="95" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="36"/>
       <c r="B95" s="41"/>
       <c r="C95" s="41" t="s">
@@ -13160,7 +13160,7 @@
       <c r="Z95" s="36"/>
       <c r="AA95" s="36"/>
     </row>
-    <row r="96" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="36"/>
       <c r="B96" s="41"/>
       <c r="C96" s="36"/>
@@ -13189,7 +13189,7 @@
       <c r="Z96" s="36"/>
       <c r="AA96" s="36"/>
     </row>
-    <row r="97" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -13218,7 +13218,7 @@
       <c r="Z97" s="36"/>
       <c r="AA97" s="36"/>
     </row>
-    <row r="98" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -13247,7 +13247,7 @@
       <c r="Z98" s="36"/>
       <c r="AA98" s="36"/>
     </row>
-    <row r="99" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -13276,7 +13276,7 @@
       <c r="Z99" s="36"/>
       <c r="AA99" s="36"/>
     </row>
-    <row r="100" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -13305,7 +13305,7 @@
       <c r="Z100" s="36"/>
       <c r="AA100" s="36"/>
     </row>
-    <row r="101" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -13334,7 +13334,7 @@
       <c r="Z101" s="36"/>
       <c r="AA101" s="36"/>
     </row>
-    <row r="102" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -13363,7 +13363,7 @@
       <c r="Z102" s="36"/>
       <c r="AA102" s="36"/>
     </row>
-    <row r="103" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -13392,7 +13392,7 @@
       <c r="Z103" s="36"/>
       <c r="AA103" s="36"/>
     </row>
-    <row r="104" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -13421,7 +13421,7 @@
       <c r="Z104" s="36"/>
       <c r="AA104" s="36"/>
     </row>
-    <row r="105" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -13450,7 +13450,7 @@
       <c r="Z105" s="36"/>
       <c r="AA105" s="36"/>
     </row>
-    <row r="106" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -13479,7 +13479,7 @@
       <c r="Z106" s="36"/>
       <c r="AA106" s="36"/>
     </row>
-    <row r="107" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -13508,7 +13508,7 @@
       <c r="Z107" s="36"/>
       <c r="AA107" s="36"/>
     </row>
-    <row r="108" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -13537,7 +13537,7 @@
       <c r="Z108" s="36"/>
       <c r="AA108" s="36"/>
     </row>
-    <row r="109" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -13566,7 +13566,7 @@
       <c r="Z109" s="36"/>
       <c r="AA109" s="36"/>
     </row>
-    <row r="110" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -13595,7 +13595,7 @@
       <c r="Z110" s="36"/>
       <c r="AA110" s="36"/>
     </row>
-    <row r="111" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -13624,7 +13624,7 @@
       <c r="Z111" s="36"/>
       <c r="AA111" s="36"/>
     </row>
-    <row r="112" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -13653,7 +13653,7 @@
       <c r="Z112" s="36"/>
       <c r="AA112" s="36"/>
     </row>
-    <row r="113" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -13682,7 +13682,7 @@
       <c r="Z113" s="36"/>
       <c r="AA113" s="36"/>
     </row>
-    <row r="114" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -13711,7 +13711,7 @@
       <c r="Z114" s="36"/>
       <c r="AA114" s="36"/>
     </row>
-    <row r="115" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -13740,7 +13740,7 @@
       <c r="Z115" s="36"/>
       <c r="AA115" s="36"/>
     </row>
-    <row r="116" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -13769,7 +13769,7 @@
       <c r="Z116" s="36"/>
       <c r="AA116" s="36"/>
     </row>
-    <row r="117" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -13798,7 +13798,7 @@
       <c r="Z117" s="36"/>
       <c r="AA117" s="36"/>
     </row>
-    <row r="118" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -13827,7 +13827,7 @@
       <c r="Z118" s="36"/>
       <c r="AA118" s="36"/>
     </row>
-    <row r="119" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -13856,7 +13856,7 @@
       <c r="Z119" s="36"/>
       <c r="AA119" s="36"/>
     </row>
-    <row r="120" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -13885,7 +13885,7 @@
       <c r="Z120" s="36"/>
       <c r="AA120" s="36"/>
     </row>
-    <row r="121" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -13914,7 +13914,7 @@
       <c r="Z121" s="36"/>
       <c r="AA121" s="36"/>
     </row>
-    <row r="122" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -13943,7 +13943,7 @@
       <c r="Z122" s="36"/>
       <c r="AA122" s="36"/>
     </row>
-    <row r="123" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -13972,7 +13972,7 @@
       <c r="Z123" s="36"/>
       <c r="AA123" s="36"/>
     </row>
-    <row r="124" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -14001,7 +14001,7 @@
       <c r="Z124" s="36"/>
       <c r="AA124" s="36"/>
     </row>
-    <row r="125" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -14030,7 +14030,7 @@
       <c r="Z125" s="36"/>
       <c r="AA125" s="36"/>
     </row>
-    <row r="126" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -14059,7 +14059,7 @@
       <c r="Z126" s="36"/>
       <c r="AA126" s="36"/>
     </row>
-    <row r="127" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -14088,7 +14088,7 @@
       <c r="Z127" s="36"/>
       <c r="AA127" s="36"/>
     </row>
-    <row r="128" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -14117,7 +14117,7 @@
       <c r="Z128" s="36"/>
       <c r="AA128" s="36"/>
     </row>
-    <row r="129" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -14146,7 +14146,7 @@
       <c r="Z129" s="36"/>
       <c r="AA129" s="36"/>
     </row>
-    <row r="130" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -14175,7 +14175,7 @@
       <c r="Z130" s="36"/>
       <c r="AA130" s="36"/>
     </row>
-    <row r="131" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -14204,7 +14204,7 @@
       <c r="Z131" s="36"/>
       <c r="AA131" s="36"/>
     </row>
-    <row r="132" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -14233,7 +14233,7 @@
       <c r="Z132" s="36"/>
       <c r="AA132" s="36"/>
     </row>
-    <row r="133" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -14262,7 +14262,7 @@
       <c r="Z133" s="36"/>
       <c r="AA133" s="36"/>
     </row>
-    <row r="134" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -14291,7 +14291,7 @@
       <c r="Z134" s="36"/>
       <c r="AA134" s="36"/>
     </row>
-    <row r="135" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -14320,7 +14320,7 @@
       <c r="Z135" s="36"/>
       <c r="AA135" s="36"/>
     </row>
-    <row r="136" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -14349,7 +14349,7 @@
       <c r="Z136" s="36"/>
       <c r="AA136" s="36"/>
     </row>
-    <row r="137" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -14378,7 +14378,7 @@
       <c r="Z137" s="36"/>
       <c r="AA137" s="36"/>
     </row>
-    <row r="138" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -14407,7 +14407,7 @@
       <c r="Z138" s="36"/>
       <c r="AA138" s="36"/>
     </row>
-    <row r="139" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -14436,7 +14436,7 @@
       <c r="Z139" s="36"/>
       <c r="AA139" s="36"/>
     </row>
-    <row r="140" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -14465,7 +14465,7 @@
       <c r="Z140" s="36"/>
       <c r="AA140" s="36"/>
     </row>
-    <row r="141" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -14494,7 +14494,7 @@
       <c r="Z141" s="36"/>
       <c r="AA141" s="36"/>
     </row>
-    <row r="142" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -14523,7 +14523,7 @@
       <c r="Z142" s="36"/>
       <c r="AA142" s="36"/>
     </row>
-    <row r="143" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -14552,7 +14552,7 @@
       <c r="Z143" s="36"/>
       <c r="AA143" s="36"/>
     </row>
-    <row r="144" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -14581,7 +14581,7 @@
       <c r="Z144" s="36"/>
       <c r="AA144" s="36"/>
     </row>
-    <row r="145" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -14610,7 +14610,7 @@
       <c r="Z145" s="36"/>
       <c r="AA145" s="36"/>
     </row>
-    <row r="146" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -14639,7 +14639,7 @@
       <c r="Z146" s="36"/>
       <c r="AA146" s="36"/>
     </row>
-    <row r="147" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -14668,7 +14668,7 @@
       <c r="Z147" s="36"/>
       <c r="AA147" s="36"/>
     </row>
-    <row r="148" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -14697,7 +14697,7 @@
       <c r="Z148" s="36"/>
       <c r="AA148" s="36"/>
     </row>
-    <row r="149" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -14726,7 +14726,7 @@
       <c r="Z149" s="36"/>
       <c r="AA149" s="36"/>
     </row>
-    <row r="150" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -14755,7 +14755,7 @@
       <c r="Z150" s="36"/>
       <c r="AA150" s="36"/>
     </row>
-    <row r="151" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -14784,7 +14784,7 @@
       <c r="Z151" s="36"/>
       <c r="AA151" s="36"/>
     </row>
-    <row r="152" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -14813,7 +14813,7 @@
       <c r="Z152" s="36"/>
       <c r="AA152" s="36"/>
     </row>
-    <row r="153" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -14842,7 +14842,7 @@
       <c r="Z153" s="36"/>
       <c r="AA153" s="36"/>
     </row>
-    <row r="154" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -14871,7 +14871,7 @@
       <c r="Z154" s="36"/>
       <c r="AA154" s="36"/>
     </row>
-    <row r="155" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -14900,7 +14900,7 @@
       <c r="Z155" s="36"/>
       <c r="AA155" s="36"/>
     </row>
-    <row r="156" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -14929,7 +14929,7 @@
       <c r="Z156" s="36"/>
       <c r="AA156" s="36"/>
     </row>
-    <row r="157" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -14958,7 +14958,7 @@
       <c r="Z157" s="36"/>
       <c r="AA157" s="36"/>
     </row>
-    <row r="158" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -14987,7 +14987,7 @@
       <c r="Z158" s="36"/>
       <c r="AA158" s="36"/>
     </row>
-    <row r="159" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -15016,7 +15016,7 @@
       <c r="Z159" s="36"/>
       <c r="AA159" s="36"/>
     </row>
-    <row r="160" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -15045,7 +15045,7 @@
       <c r="Z160" s="36"/>
       <c r="AA160" s="36"/>
     </row>
-    <row r="161" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -15074,7 +15074,7 @@
       <c r="Z161" s="36"/>
       <c r="AA161" s="36"/>
     </row>
-    <row r="162" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -15103,7 +15103,7 @@
       <c r="Z162" s="36"/>
       <c r="AA162" s="36"/>
     </row>
-    <row r="163" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -15132,7 +15132,7 @@
       <c r="Z163" s="36"/>
       <c r="AA163" s="36"/>
     </row>
-    <row r="164" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -15161,7 +15161,7 @@
       <c r="Z164" s="36"/>
       <c r="AA164" s="36"/>
     </row>
-    <row r="165" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -15190,7 +15190,7 @@
       <c r="Z165" s="36"/>
       <c r="AA165" s="36"/>
     </row>
-    <row r="166" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -15219,7 +15219,7 @@
       <c r="Z166" s="36"/>
       <c r="AA166" s="36"/>
     </row>
-    <row r="167" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -15248,7 +15248,7 @@
       <c r="Z167" s="36"/>
       <c r="AA167" s="36"/>
     </row>
-    <row r="168" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -15277,7 +15277,7 @@
       <c r="Z168" s="36"/>
       <c r="AA168" s="36"/>
     </row>
-    <row r="169" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -15306,7 +15306,7 @@
       <c r="Z169" s="36"/>
       <c r="AA169" s="36"/>
     </row>
-    <row r="170" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -15335,7 +15335,7 @@
       <c r="Z170" s="36"/>
       <c r="AA170" s="36"/>
     </row>
-    <row r="171" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -15364,7 +15364,7 @@
       <c r="Z171" s="36"/>
       <c r="AA171" s="36"/>
     </row>
-    <row r="172" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -15393,7 +15393,7 @@
       <c r="Z172" s="36"/>
       <c r="AA172" s="36"/>
     </row>
-    <row r="173" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -15422,7 +15422,7 @@
       <c r="Z173" s="36"/>
       <c r="AA173" s="36"/>
     </row>
-    <row r="174" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -15451,7 +15451,7 @@
       <c r="Z174" s="36"/>
       <c r="AA174" s="36"/>
     </row>
-    <row r="175" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -15480,7 +15480,7 @@
       <c r="Z175" s="36"/>
       <c r="AA175" s="36"/>
     </row>
-    <row r="176" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -15509,7 +15509,7 @@
       <c r="Z176" s="36"/>
       <c r="AA176" s="36"/>
     </row>
-    <row r="177" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -15538,7 +15538,7 @@
       <c r="Z177" s="36"/>
       <c r="AA177" s="36"/>
     </row>
-    <row r="178" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -15567,7 +15567,7 @@
       <c r="Z178" s="36"/>
       <c r="AA178" s="36"/>
     </row>
-    <row r="179" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -15596,7 +15596,7 @@
       <c r="Z179" s="36"/>
       <c r="AA179" s="36"/>
     </row>
-    <row r="180" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -15625,7 +15625,7 @@
       <c r="Z180" s="36"/>
       <c r="AA180" s="36"/>
     </row>
-    <row r="181" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
@@ -15654,7 +15654,7 @@
       <c r="Z181" s="36"/>
       <c r="AA181" s="36"/>
     </row>
-    <row r="182" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
@@ -15683,7 +15683,7 @@
       <c r="Z182" s="36"/>
       <c r="AA182" s="36"/>
     </row>
-    <row r="183" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
@@ -15712,7 +15712,7 @@
       <c r="Z183" s="36"/>
       <c r="AA183" s="36"/>
     </row>
-    <row r="184" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
@@ -15741,7 +15741,7 @@
       <c r="Z184" s="36"/>
       <c r="AA184" s="36"/>
     </row>
-    <row r="185" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="36"/>
@@ -15770,7 +15770,7 @@
       <c r="Z185" s="36"/>
       <c r="AA185" s="36"/>
     </row>
-    <row r="186" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="36"/>
@@ -15799,7 +15799,7 @@
       <c r="Z186" s="36"/>
       <c r="AA186" s="36"/>
     </row>
-    <row r="187" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
@@ -15828,7 +15828,7 @@
       <c r="Z187" s="36"/>
       <c r="AA187" s="36"/>
     </row>
-    <row r="188" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
@@ -15857,7 +15857,7 @@
       <c r="Z188" s="36"/>
       <c r="AA188" s="36"/>
     </row>
-    <row r="189" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
@@ -15886,7 +15886,7 @@
       <c r="Z189" s="36"/>
       <c r="AA189" s="36"/>
     </row>
-    <row r="190" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
@@ -15915,7 +15915,7 @@
       <c r="Z190" s="36"/>
       <c r="AA190" s="36"/>
     </row>
-    <row r="191" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
@@ -15944,7 +15944,7 @@
       <c r="Z191" s="36"/>
       <c r="AA191" s="36"/>
     </row>
-    <row r="192" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -15973,7 +15973,7 @@
       <c r="Z192" s="36"/>
       <c r="AA192" s="36"/>
     </row>
-    <row r="193" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
@@ -16002,7 +16002,7 @@
       <c r="Z193" s="36"/>
       <c r="AA193" s="36"/>
     </row>
-    <row r="194" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
@@ -16031,7 +16031,7 @@
       <c r="Z194" s="36"/>
       <c r="AA194" s="36"/>
     </row>
-    <row r="195" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="36"/>
@@ -16060,7 +16060,7 @@
       <c r="Z195" s="36"/>
       <c r="AA195" s="36"/>
     </row>
-    <row r="196" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
@@ -16089,7 +16089,7 @@
       <c r="Z196" s="36"/>
       <c r="AA196" s="36"/>
     </row>
-    <row r="197" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
@@ -16118,7 +16118,7 @@
       <c r="Z197" s="36"/>
       <c r="AA197" s="36"/>
     </row>
-    <row r="198" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
@@ -16147,7 +16147,7 @@
       <c r="Z198" s="36"/>
       <c r="AA198" s="36"/>
     </row>
-    <row r="199" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
@@ -16176,7 +16176,7 @@
       <c r="Z199" s="36"/>
       <c r="AA199" s="36"/>
     </row>
-    <row r="200" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
@@ -16205,7 +16205,7 @@
       <c r="Z200" s="36"/>
       <c r="AA200" s="36"/>
     </row>
-    <row r="201" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
@@ -16234,7 +16234,7 @@
       <c r="Z201" s="36"/>
       <c r="AA201" s="36"/>
     </row>
-    <row r="202" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
@@ -16263,7 +16263,7 @@
       <c r="Z202" s="36"/>
       <c r="AA202" s="36"/>
     </row>
-    <row r="203" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
@@ -16292,7 +16292,7 @@
       <c r="Z203" s="36"/>
       <c r="AA203" s="36"/>
     </row>
-    <row r="204" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="36"/>
@@ -16321,7 +16321,7 @@
       <c r="Z204" s="36"/>
       <c r="AA204" s="36"/>
     </row>
-    <row r="205" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
       <c r="C205" s="36"/>
@@ -16350,7 +16350,7 @@
       <c r="Z205" s="36"/>
       <c r="AA205" s="36"/>
     </row>
-    <row r="206" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="36"/>
@@ -16379,7 +16379,7 @@
       <c r="Z206" s="36"/>
       <c r="AA206" s="36"/>
     </row>
-    <row r="207" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="36"/>
@@ -16408,12 +16408,13 @@
       <c r="Z207" s="36"/>
       <c r="AA207" s="36"/>
     </row>
-    <row r="208" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>